--- a/medicine/Mort/Décret_impérial_sur_les_sépultures/Décret_impérial_sur_les_sépultures.xlsx
+++ b/medicine/Mort/Décret_impérial_sur_les_sépultures/Décret_impérial_sur_les_sépultures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9cret_imp%C3%A9rial_sur_les_s%C3%A9pultures</t>
+          <t>Décret_impérial_sur_les_sépultures</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le décret impérial sur les sépultures est un décret promulgué le 12 juin 1804 (23 prairial an XII) par Napoléon Bonaparte à Saint-Cloud, qui rassemble dans un seul corpus toutes les règles précédentes sur les cimetières.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9cret_imp%C3%A9rial_sur_les_s%C3%A9pultures</t>
+          <t>Décret_impérial_sur_les_sépultures</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Contenu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le décret établit notamment que :
 les tombes doivent être mises en dehors de la muraille de la ville ;
 les tombes doivent être égales pour éviter les discriminations entre les défunts ;
 sur les tombes des défunts illustres on peut faire sculpter une épitaphe ;
-l'inhumation doit avoir lieu dans des fosses séparées[1] ;
+l'inhumation doit avoir lieu dans des fosses séparées ;
 des concessions peuvent être acquises par les familles.
 Donc ce décret a deux motivations : une hygiénique-sanitaire, l'autre de genre idéologique-politique.
 </t>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>D%C3%A9cret_imp%C3%A9rial_sur_les_s%C3%A9pultures</t>
+          <t>Décret_impérial_sur_les_sépultures</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Royaume d'Italie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce décret fut étendu au Royaume d'Italie par l'Editto “Della Polizia Medica” signé à Saint-Cloud le 5 septembre 1806.
 Ugo Foscolo, un écrivain italien, élève une contestation contre ce décret dans son œuvre Dei Sepolcri (it).
